--- a/JupyterNotebooks/AveragedIntensities-SRP/CubeA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/CubeA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -68,6 +80,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -449,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -519,8 +534,11 @@
       <c r="V1" s="1">
         <v>20</v>
       </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -528,67 +546,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -599,7 +620,7 @@
         <v>0.8011023054755043</v>
       </c>
       <c r="D3">
-        <v>1.467341498559078</v>
+        <v>1.467348703170029</v>
       </c>
       <c r="E3">
         <v>0.8757204610951008</v>
@@ -611,13 +632,13 @@
         <v>0.8011023054755043</v>
       </c>
       <c r="H3">
-        <v>1.467341498559078</v>
+        <v>1.467348703170029</v>
       </c>
       <c r="I3">
         <v>0.8592363112391931</v>
       </c>
       <c r="J3">
-        <v>1.04514409221902</v>
+        <v>1.045129682997118</v>
       </c>
       <c r="K3">
         <v>0.9029178674351584</v>
@@ -632,31 +653,34 @@
         <v>0.8011023054755043</v>
       </c>
       <c r="O3">
-        <v>1.171530979827089</v>
+        <v>0.8757204610951008</v>
       </c>
       <c r="P3">
+        <v>1.171534582132565</v>
+      </c>
+      <c r="Q3">
         <v>0.9716066282420749</v>
       </c>
-      <c r="Q3">
-        <v>1.048054755043228</v>
-      </c>
       <c r="R3">
-        <v>1.136851585014409</v>
+        <v>1.048057156580211</v>
       </c>
       <c r="S3">
-        <v>1.048054755043228</v>
+        <v>1.136853986551393</v>
       </c>
       <c r="T3">
-        <v>1.052914265129683</v>
+        <v>1.048057156580211</v>
       </c>
       <c r="U3">
-        <v>1.002551873198847</v>
+        <v>1.052916066282421</v>
       </c>
       <c r="V3">
-        <v>1.033602305475504</v>
+        <v>1.002553314121037</v>
+      </c>
+      <c r="W3">
+        <v>1.033601404899135</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -664,67 +688,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9638945185374247</v>
+        <v>0.9638985987822394</v>
       </c>
       <c r="D4">
-        <v>1.036819303333294</v>
+        <v>1.036818623292492</v>
       </c>
       <c r="E4">
-        <v>1.00058335753656</v>
+        <v>1.000587437781375</v>
       </c>
       <c r="F4">
-        <v>1.007245885007206</v>
+        <v>1.007246774291332</v>
       </c>
       <c r="G4">
-        <v>0.9638945185374247</v>
+        <v>0.9638985987822394</v>
       </c>
       <c r="H4">
-        <v>1.036819303333294</v>
+        <v>1.036818623292492</v>
       </c>
       <c r="I4">
-        <v>0.9904130263475993</v>
+        <v>0.9904142390077714</v>
       </c>
       <c r="J4">
-        <v>1.005961514425815</v>
+        <v>1.005964879533405</v>
       </c>
       <c r="K4">
-        <v>0.9845975538300417</v>
+        <v>0.9845986209709934</v>
       </c>
       <c r="L4">
-        <v>1.027145946312414</v>
+        <v>1.027155073175815</v>
       </c>
       <c r="M4">
         <v>0.9639135596798931</v>
       </c>
       <c r="N4">
-        <v>0.9638945185374247</v>
+        <v>0.9638985987822394</v>
       </c>
       <c r="O4">
-        <v>1.018701330434927</v>
+        <v>1.000587437781375</v>
       </c>
       <c r="P4">
-        <v>1.003914621271883</v>
+        <v>1.018703030536933</v>
       </c>
       <c r="Q4">
-        <v>1.00043239313576</v>
+        <v>1.003917106036353</v>
       </c>
       <c r="R4">
-        <v>1.014882848625687</v>
+        <v>1.000434886618702</v>
       </c>
       <c r="S4">
-        <v>1.00043239313576</v>
+        <v>1.014884278455066</v>
       </c>
       <c r="T4">
-        <v>1.002135766103621</v>
+        <v>1.000434886618702</v>
       </c>
       <c r="U4">
-        <v>0.9944875165903818</v>
+        <v>1.00213785853686</v>
       </c>
       <c r="V4">
-        <v>1.002082638166294</v>
+        <v>0.9944900065859356</v>
+      </c>
+      <c r="W4">
+        <v>1.002085530854428</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -735,25 +762,25 @@
         <v>0.9419585513280836</v>
       </c>
       <c r="D5">
-        <v>1.068317490393803</v>
+        <v>1.068321385280554</v>
       </c>
       <c r="E5">
         <v>1.000601375080048</v>
       </c>
       <c r="F5">
-        <v>1.010407263767599</v>
+        <v>1.010401498991156</v>
       </c>
       <c r="G5">
         <v>0.9419585513280836</v>
       </c>
       <c r="H5">
-        <v>1.068317490393803</v>
+        <v>1.068321385280554</v>
       </c>
       <c r="I5">
-        <v>0.9833334792892555</v>
+        <v>0.983330175997031</v>
       </c>
       <c r="J5">
-        <v>1.013414767780571</v>
+        <v>1.013429336456102</v>
       </c>
       <c r="K5">
         <v>0.9746796761074092</v>
@@ -768,31 +795,34 @@
         <v>0.9419585513280836</v>
       </c>
       <c r="O5">
-        <v>1.034459432736925</v>
+        <v>1.000601375080048</v>
       </c>
       <c r="P5">
-        <v>1.005504319423823</v>
+        <v>1.034461380180301</v>
       </c>
       <c r="Q5">
-        <v>1.003625805600645</v>
+        <v>1.005501437035602</v>
       </c>
       <c r="R5">
-        <v>1.026442043080483</v>
+        <v>1.003627103896229</v>
       </c>
       <c r="S5">
-        <v>1.003625805600645</v>
+        <v>1.02644141978392</v>
       </c>
       <c r="T5">
-        <v>1.005321170142383</v>
+        <v>1.003627103896229</v>
       </c>
       <c r="U5">
-        <v>0.9926486463795232</v>
+        <v>1.00532070266996</v>
       </c>
       <c r="V5">
-        <v>1.004567126577889</v>
+        <v>0.992648272401585</v>
+      </c>
+      <c r="W5">
+        <v>1.004568301014591</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -800,67 +830,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9914131198678452</v>
+        <v>0.9914116183227505</v>
       </c>
       <c r="D6">
-        <v>1.006860845860441</v>
+        <v>1.006865334768715</v>
       </c>
       <c r="E6">
-        <v>0.9992497177660522</v>
+        <v>0.9992257370321668</v>
       </c>
       <c r="F6">
-        <v>1.003026780963955</v>
+        <v>1.003031175826785</v>
       </c>
       <c r="G6">
-        <v>0.9914131198678452</v>
+        <v>0.9914116183227505</v>
       </c>
       <c r="H6">
-        <v>1.006860845860441</v>
+        <v>1.006865334768715</v>
       </c>
       <c r="I6">
-        <v>0.9981616001692855</v>
+        <v>0.9981610279260599</v>
       </c>
       <c r="J6">
-        <v>0.9966496881956919</v>
+        <v>0.9966239700543688</v>
       </c>
       <c r="K6">
-        <v>0.9959664522520302</v>
+        <v>0.9959625668807359</v>
       </c>
       <c r="L6">
-        <v>1.008586147525625</v>
+        <v>1.008582380986247</v>
       </c>
       <c r="M6">
         <v>0.9914303178399714</v>
       </c>
       <c r="N6">
-        <v>0.9914131198678452</v>
+        <v>0.9914116183227505</v>
       </c>
       <c r="O6">
-        <v>1.003055281813247</v>
+        <v>0.9992257370321668</v>
       </c>
       <c r="P6">
-        <v>1.001138249365003</v>
+        <v>1.003045535900441</v>
       </c>
       <c r="Q6">
-        <v>0.9991745611647795</v>
+        <v>1.001128456429476</v>
       </c>
       <c r="R6">
-        <v>1.003045781530149</v>
+        <v>0.9991675633745442</v>
       </c>
       <c r="S6">
-        <v>0.9991745611647795</v>
+        <v>1.003040749209222</v>
       </c>
       <c r="T6">
-        <v>1.000137616114573</v>
+        <v>0.9991675633745442</v>
       </c>
       <c r="U6">
-        <v>0.9983927168652278</v>
+        <v>1.000133466487604</v>
       </c>
       <c r="V6">
-        <v>0.9999892940751157</v>
+        <v>0.9983890968546337</v>
+      </c>
+      <c r="W6">
+        <v>0.9999829764747286</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -868,64 +901,351 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9939683121314248</v>
+        <v>0.7837646252565347</v>
       </c>
       <c r="D7">
-        <v>0.9970575997167245</v>
+        <v>0.6882707705982601</v>
       </c>
       <c r="E7">
-        <v>1.002331220851861</v>
+        <v>1.339625597183558</v>
       </c>
       <c r="F7">
-        <v>1.001797119982369</v>
+        <v>0.9215980475574566</v>
       </c>
       <c r="G7">
-        <v>0.9939683121314248</v>
+        <v>0.7837646252565347</v>
       </c>
       <c r="H7">
-        <v>0.9970575997167245</v>
+        <v>0.6882707705982601</v>
       </c>
       <c r="I7">
-        <v>1.001043178177309</v>
+        <v>1.172223932095453</v>
       </c>
       <c r="J7">
-        <v>0.9962157605683852</v>
+        <v>1.102574004792514</v>
       </c>
       <c r="K7">
+        <v>0.9270584392429874</v>
+      </c>
+      <c r="L7">
+        <v>0.8168412473212384</v>
+      </c>
+      <c r="M7">
+        <v>0.7837646252565347</v>
+      </c>
+      <c r="N7">
+        <v>0.7837646252565347</v>
+      </c>
+      <c r="O7">
+        <v>1.339625597183558</v>
+      </c>
+      <c r="P7">
+        <v>1.013948183890909</v>
+      </c>
+      <c r="Q7">
+        <v>1.130611822370507</v>
+      </c>
+      <c r="R7">
+        <v>0.9372203310127842</v>
+      </c>
+      <c r="S7">
+        <v>0.9831648051130916</v>
+      </c>
+      <c r="T7">
+        <v>0.9372203310127842</v>
+      </c>
+      <c r="U7">
+        <v>0.9333147601489523</v>
+      </c>
+      <c r="V7">
+        <v>0.9034047331704688</v>
+      </c>
+      <c r="W7">
+        <v>0.9689945830060003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1.156914513969804</v>
+      </c>
+      <c r="D8">
+        <v>1.009730251933272</v>
+      </c>
+      <c r="E8">
+        <v>0.8703655833429766</v>
+      </c>
+      <c r="F8">
+        <v>1.019371827456286</v>
+      </c>
+      <c r="G8">
+        <v>1.156914513969804</v>
+      </c>
+      <c r="H8">
+        <v>1.009730251933272</v>
+      </c>
+      <c r="I8">
+        <v>0.9606364453713483</v>
+      </c>
+      <c r="J8">
+        <v>0.9379999121534744</v>
+      </c>
+      <c r="K8">
+        <v>1.062197457834866</v>
+      </c>
+      <c r="L8">
+        <v>1.002615114325633</v>
+      </c>
+      <c r="M8">
+        <v>1.156914513969804</v>
+      </c>
+      <c r="N8">
+        <v>1.156914513969804</v>
+      </c>
+      <c r="O8">
+        <v>0.8703655833429766</v>
+      </c>
+      <c r="P8">
+        <v>0.9400479176381245</v>
+      </c>
+      <c r="Q8">
+        <v>0.9448687053996313</v>
+      </c>
+      <c r="R8">
+        <v>1.012336783082018</v>
+      </c>
+      <c r="S8">
+        <v>0.966489220910845</v>
+      </c>
+      <c r="T8">
+        <v>1.012336783082018</v>
+      </c>
+      <c r="U8">
+        <v>1.014095544175585</v>
+      </c>
+      <c r="V8">
+        <v>1.042659338134428</v>
+      </c>
+      <c r="W8">
+        <v>1.002478888298457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>3.94</v>
+      </c>
+      <c r="E9">
+        <v>0.22</v>
+      </c>
+      <c r="F9">
+        <v>1.31</v>
+      </c>
+      <c r="G9">
+        <v>0.06</v>
+      </c>
+      <c r="H9">
+        <v>3.94</v>
+      </c>
+      <c r="I9">
+        <v>0.19</v>
+      </c>
+      <c r="J9">
+        <v>1.15</v>
+      </c>
+      <c r="K9">
+        <v>0.49</v>
+      </c>
+      <c r="L9">
+        <v>2.49</v>
+      </c>
+      <c r="M9">
+        <v>0.06</v>
+      </c>
+      <c r="N9">
+        <v>0.06</v>
+      </c>
+      <c r="O9">
+        <v>0.22</v>
+      </c>
+      <c r="P9">
+        <v>2.08</v>
+      </c>
+      <c r="Q9">
+        <v>0.765</v>
+      </c>
+      <c r="R9">
+        <v>1.406666666666667</v>
+      </c>
+      <c r="S9">
+        <v>1.823333333333333</v>
+      </c>
+      <c r="T9">
+        <v>1.406666666666667</v>
+      </c>
+      <c r="U9">
+        <v>1.3825</v>
+      </c>
+      <c r="V9">
+        <v>1.118</v>
+      </c>
+      <c r="W9">
+        <v>1.23125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.06</v>
+      </c>
+      <c r="D10">
+        <v>3.94</v>
+      </c>
+      <c r="E10">
+        <v>0.22</v>
+      </c>
+      <c r="F10">
+        <v>1.31</v>
+      </c>
+      <c r="G10">
+        <v>0.06</v>
+      </c>
+      <c r="H10">
+        <v>3.94</v>
+      </c>
+      <c r="I10">
+        <v>0.19</v>
+      </c>
+      <c r="J10">
+        <v>1.14</v>
+      </c>
+      <c r="K10">
+        <v>0.49</v>
+      </c>
+      <c r="L10">
+        <v>2.49</v>
+      </c>
+      <c r="M10">
+        <v>0.06</v>
+      </c>
+      <c r="N10">
+        <v>0.06</v>
+      </c>
+      <c r="O10">
+        <v>0.22</v>
+      </c>
+      <c r="P10">
+        <v>2.08</v>
+      </c>
+      <c r="Q10">
+        <v>0.765</v>
+      </c>
+      <c r="R10">
+        <v>1.406666666666667</v>
+      </c>
+      <c r="S10">
+        <v>1.823333333333333</v>
+      </c>
+      <c r="T10">
+        <v>1.406666666666667</v>
+      </c>
+      <c r="U10">
+        <v>1.3825</v>
+      </c>
+      <c r="V10">
+        <v>1.118</v>
+      </c>
+      <c r="W10">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9939683121314246</v>
+      </c>
+      <c r="D11">
+        <v>0.9971109937482165</v>
+      </c>
+      <c r="E11">
+        <v>1.002319280866169</v>
+      </c>
+      <c r="F11">
+        <v>1.001796054650951</v>
+      </c>
+      <c r="G11">
+        <v>0.9939683121314246</v>
+      </c>
+      <c r="H11">
+        <v>0.9971109937482165</v>
+      </c>
+      <c r="I11">
+        <v>1.001044519851968</v>
+      </c>
+      <c r="J11">
+        <v>0.9962497749840517</v>
+      </c>
+      <c r="K11">
         <v>0.9975222838530295</v>
       </c>
-      <c r="L7">
+      <c r="L11">
         <v>1.003967955634248</v>
       </c>
-      <c r="M7">
+      <c r="M11">
         <v>0.9939844032356663</v>
       </c>
-      <c r="N7">
-        <v>0.9939683121314248</v>
-      </c>
-      <c r="O7">
-        <v>0.9996944102842928</v>
-      </c>
-      <c r="P7">
-        <v>1.002064170417115</v>
-      </c>
-      <c r="Q7">
-        <v>0.9977857109000036</v>
-      </c>
-      <c r="R7">
-        <v>1.000395313516985</v>
-      </c>
-      <c r="S7">
-        <v>0.9977857109000036</v>
-      </c>
-      <c r="T7">
-        <v>0.9987885631705948</v>
-      </c>
-      <c r="U7">
-        <v>0.9978245129627608</v>
-      </c>
-      <c r="V7">
-        <v>0.9992379288644189</v>
+      <c r="N11">
+        <v>0.9939683121314246</v>
+      </c>
+      <c r="O11">
+        <v>1.002319280866169</v>
+      </c>
+      <c r="P11">
+        <v>0.9997151373071926</v>
+      </c>
+      <c r="Q11">
+        <v>1.00205766775856</v>
+      </c>
+      <c r="R11">
+        <v>0.9977995289152699</v>
+      </c>
+      <c r="S11">
+        <v>1.000408776421779</v>
+      </c>
+      <c r="T11">
+        <v>0.99779952891527</v>
+      </c>
+      <c r="U11">
+        <v>0.9987986603491902</v>
+      </c>
+      <c r="V11">
+        <v>0.9978325907056371</v>
+      </c>
+      <c r="W11">
+        <v>0.9992473969650072</v>
       </c>
     </row>
   </sheetData>
